--- a/doc/NLP出库方案20190326.xlsx
+++ b/doc/NLP出库方案20190326.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5C265-9820-424A-93A5-773941FA919B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0745F570-9F99-5144-A484-1EC024521F72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1260" windowWidth="26960" windowHeight="16440" xr2:uid="{50A839AF-FEB8-FE41-B6AA-641BE941C675}"/>
+    <workbookView xWindow="3100" yWindow="1260" windowWidth="26960" windowHeight="16440" activeTab="1" xr2:uid="{50A839AF-FEB8-FE41-B6AA-641BE941C675}"/>
   </bookViews>
   <sheets>
     <sheet name="20190326" sheetId="1" r:id="rId1"/>
+    <sheet name="20190328" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>概要设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +210,182 @@
   </si>
   <si>
     <t>20190326版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把整部小说都解析了</t>
+  </si>
+  <si>
+    <t>默认叙述模式</t>
+  </si>
+  <si>
+    <t>默认数据库为语境环境就完了。</t>
+  </si>
+  <si>
+    <t>老老实实一句一句的分析。</t>
+  </si>
+  <si>
+    <r>
+      <t>项目日记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/3/27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【先从小说入手。老老实实的解析】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>建立语境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或无需建立语境。</t>
+    </r>
+  </si>
+  <si>
+    <t>当然不是人读书。是电脑读书。</t>
+  </si>
+  <si>
+    <r>
+      <t>项目日记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/3/27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【写个读书程序】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、如何断句？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、整个文本导入，如何断句？</t>
+    </r>
+  </si>
+  <si>
+    <t>如果是一句没头没尾的话，相信即使是个自然人，也无法对应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，每一句话都不是没来由的，一定有它的前因后果，或者前世今生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那这些基础的背景信息，我叫它【语境】。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目日记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/3/28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【语境的基本设计】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、练习：用【大数据】对小说进行分析</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190328版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +458,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -310,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +547,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,6 +1707,1521 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="4000"/>
             <a:t>语境信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="右箭头 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B68224-6B97-5C4C-958B-0436266B340C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="9194800"/>
+          <a:ext cx="1168400" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>242581</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638728</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BAF976-2E1E-4442-ADBB-B6D1F5BC40EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1893581" y="9060173"/>
+          <a:ext cx="1221647" cy="460180"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一句话</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>29834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC11A6E-5B3D-6C4E-889F-F0BA51B4EA45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="9072234"/>
+          <a:ext cx="800100" cy="478166"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>解析后</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247803</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>375920</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD16FE5-3C19-F549-BD8A-946744B45060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362603" y="9041751"/>
+          <a:ext cx="4242917" cy="1453591"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9159"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语境</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>追加用信息、反馈用信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>追加用信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对象句子信息、内容发生时间信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>反馈用信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>？具体怎么分还不知道 ？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203756</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>134342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C35B221-139E-664C-AEDE-2F173CA4EC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318556" y="13515062"/>
+          <a:ext cx="4297124" cy="3248938"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7355"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内容发生时间信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的说明</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    这个时间是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一句话的内容的发生时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>     例，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>晚上吃什么。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>                        语境时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>现在</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>到了晚上，他问吃什么。  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>语境时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>现在的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>晚上</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    所以，每句话所描述的内容都应该有发生时间，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    如果你不知道，可以置空。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>   当下一句话来的时候，就是这一句的后一句，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    所以这个时间也可以理解为采番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    但是与采番不同的是，采番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>永远是加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    但话却是可以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>插播</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>】【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>倒叙</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    讲另一个时间段的内容。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243102</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57931383-6DA6-544C-B982-5CDE1B2A7843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4357902" y="10557557"/>
+          <a:ext cx="4227297" cy="1422612"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10732"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>追加用信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对象句子信息、内容发生时间信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|-----</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>做成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>追加用信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|-----</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对象句子信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|-----</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内容发生时间信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|-----</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>登陆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>追加用信息         </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235634</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438EA07E-01F8-5F4F-9CA4-C7563F73426E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4350434" y="12037377"/>
+          <a:ext cx="4214446" cy="1406911"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内容发生时间信息（对象句子信息）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|-----1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、找时间信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在对象句子中。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|-----2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、如果找到，就将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、的结果存入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>内容的发生时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>|-----3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、如果没找到，将置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>内容的发生时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为空。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF2C3C9-03D7-9346-9163-7A6281003FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="12110720"/>
+          <a:ext cx="243840" cy="223520"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B75D2F6-DFA3-9849-8FCD-C1BEF1343483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6644640" y="11176000"/>
+          <a:ext cx="243840" cy="223520"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="肘形连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C89E54F-B7AD-E04B-A946-AE485EAB0FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5095240" y="10439400"/>
+          <a:ext cx="711200" cy="2631440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62857"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F554D27-B33A-E944-9C91-FAB1AD475FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7609840" y="9276080"/>
+          <a:ext cx="243840" cy="223520"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8497960-ECF7-1F4D-B2F7-AEFBAE1F75B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="10617200"/>
+          <a:ext cx="243840" cy="223520"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="肘形连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65530658-6B5B-084E-AA62-46EBFBBEA5C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5374640" y="8260080"/>
+          <a:ext cx="1117600" cy="3596640"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72727"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="右箭头 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C293891F-069B-A545-8D4E-5D01FBEBAF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="11587480"/>
+          <a:ext cx="2959100" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661681</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>43172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆角矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF98028-5510-EB4A-B80B-0579B0FE5B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8916681" y="11320772"/>
+          <a:ext cx="2576819" cy="896628"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>由语境来登陆句子比较好一些</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>理由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可以将一些漏掉的信息补齐后再。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1786,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3468200-4FC9-EB4C-AE82-E997172A2BD5}">
   <dimension ref="B2:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2161,4 +3905,142 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8DE012-523B-814C-8AED-AF8DABE869A5}">
+  <dimension ref="A2:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:9" ht="28">
+      <c r="H2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="23">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="22">
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="22">
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="23">
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22">
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="22">
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23">
+      <c r="A16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="23">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="23">
+      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="23">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="23">
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="23">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="23">
+      <c r="B22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="23">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="24">
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="24">
+      <c r="A27" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26">
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26">
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26">
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/NLP出库方案20190326.xlsx
+++ b/doc/NLP出库方案20190326.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0745F570-9F99-5144-A484-1EC024521F72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0255B1-0AF5-AB43-B7FD-B36C88A76484}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1260" windowWidth="26960" windowHeight="16440" activeTab="1" xr2:uid="{50A839AF-FEB8-FE41-B6AA-641BE941C675}"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="26960" windowHeight="16160" activeTab="2" xr2:uid="{50A839AF-FEB8-FE41-B6AA-641BE941C675}"/>
   </bookViews>
   <sheets>
     <sheet name="20190326" sheetId="1" r:id="rId1"/>
     <sheet name="20190328" sheetId="2" r:id="rId2"/>
+    <sheet name="20190423" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>概要设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,12 +389,140 @@
     <t>20190328版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目日记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/4/23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【扩展语法树的结构】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从。。。。。到。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何对应。下面这种区间信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间信息，也是辅臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【从】和【到】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【from】和【to】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他是两个辅臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个辅臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主。【从】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个辅臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主。【到】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要语法器抓住这个辅臣，并明确之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自语法树上，要分出一块来识别这种辅臣。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What------vb-------what</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  |-----辅臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     太子---从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     太子---到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可不可以认为是：一个叫【从】一个叫【到】的辅臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -462,7 +591,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val=".PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -497,6 +626,12 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3530,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3468200-4FC9-EB4C-AE82-E997172A2BD5}">
   <dimension ref="B2:P137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3902,7 +4037,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3911,7 +4046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8DE012-523B-814C-8AED-AF8DABE869A5}">
   <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -4041,6 +4178,208 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BBB633-01E7-CC44-8B71-B88807431955}">
+  <dimension ref="A4:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="4" spans="1:4" ht="24">
+      <c r="A4" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/NLP出库方案20190326.xlsx
+++ b/doc/NLP出库方案20190326.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0255B1-0AF5-AB43-B7FD-B36C88A76484}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635EA69-7BA6-7344-A954-00B1878844A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="460" windowWidth="26960" windowHeight="16160" activeTab="2" xr2:uid="{50A839AF-FEB8-FE41-B6AA-641BE941C675}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>概要设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,15 +514,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可不可以认为是：一个叫【从】一个叫【到】的辅臣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>可不可以认为是：一个叫【从】的辅臣 和 一个叫【到】的辅臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目日记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/4/24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【NLP是怎么说的】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F5FBF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>/**</t>
+    </r>
+  </si>
+  <si>
+    <t>(ROOT</t>
+  </si>
+  <si>
+    <t>  (IP</t>
+  </si>
+  <si>
+    <t>    (NP</t>
+  </si>
+  <si>
+    <t>      (NP</t>
+  </si>
+  <si>
+    <t>        (NP (NR 钱塘江))</t>
+  </si>
+  <si>
+    <t>        (NP (NR 浩浩))</t>
+  </si>
+  <si>
+    <t>        (NP (NN 江水)))</t>
+  </si>
+  <si>
+    <t>      (PU ，)</t>
+  </si>
+  <si>
+    <t>        (CP</t>
+  </si>
+  <si>
+    <t>          (IP</t>
+  </si>
+  <si>
+    <t>            (NP (NN 日日夜夜))</t>
+  </si>
+  <si>
+    <t>            (VP (VV 无穷无尽)))</t>
+  </si>
+  <si>
+    <t>          (DEC 的))</t>
+  </si>
+  <si>
+    <t>        (IP</t>
+  </si>
+  <si>
+    <t>            (VP</t>
+  </si>
+  <si>
+    <t>              (PP (P 从)</t>
+  </si>
+  <si>
+    <t>                (NP</t>
+  </si>
+  <si>
+    <t>                  (NP (NR 临安))</t>
+  </si>
+  <si>
+    <t>                  (NP (NN 牛) (NN 家) (NN 村边))))</t>
+  </si>
+  <si>
+    <t>              (VP (VV 绕过))))</t>
+  </si>
+  <si>
+    <t>          (PU ，)</t>
+  </si>
+  <si>
+    <t>              (NP (NN 东流) (NN 入海)))))))</t>
+  </si>
+  <si>
+    <t>    (PU 。)))</t>
+  </si>
+  <si>
+    <t>        */</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,6 +751,18 @@
       <name val=".PingFang SC"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F5FBF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -662,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +824,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3358,6 +3494,584 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>可以将一些漏掉的信息补齐后再。</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786F6952-EEAF-864E-B3E1-C3DDC2218DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="10909300"/>
+          <a:ext cx="2717800" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>VP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>VV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> 绕过</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB0C857-2938-7D41-925F-9F40B4C22B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6489700" y="12052300"/>
+          <a:ext cx="2286000" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>PP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> 从</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F292882F-B031-F849-97C7-5D6959B0E83C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="13157200"/>
+          <a:ext cx="2946400" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>NN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>NR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> 临安</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0FAC52-CEBD-5C46-8873-DC9643768185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="14236700"/>
+          <a:ext cx="2946400" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>NN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>NR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> 牛家村 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D468A8C5-0C32-6643-9E28-A3A3C37FE98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="15379700"/>
+          <a:ext cx="2946400" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>NN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>NR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t> 边</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95BB5576-492A-3940-8104-F6B9826F422F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="11353800"/>
+          <a:ext cx="2489200" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t>辅臣</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E9CB8A-7314-194D-B498-4794F33F95E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8775700" y="11804650"/>
+          <a:ext cx="1016000" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>86481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347738</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2B1B23-DE82-584C-89FE-ECB522277F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5098143" y="10322076"/>
+          <a:ext cx="7722809" cy="5794829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3665,7 +4379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3468200-4FC9-EB4C-AE82-E997172A2BD5}">
   <dimension ref="B2:P137"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A86" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -4185,10 +4899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BBB633-01E7-CC44-8B71-B88807431955}">
-  <dimension ref="A4:G47"/>
+  <dimension ref="A4:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4378,8 +5092,159 @@
         <v>85</v>
       </c>
     </row>
+    <row r="50" spans="1:2" ht="24">
+      <c r="A50" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>